--- a/data/data_hirarki.xlsx
+++ b/data/data_hirarki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\Riset\quran-tema\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15AD7CD-51A1-43E3-B718-5CCA19E91E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679EEE7-C97F-4FA0-9383-9CB428320D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="1620" windowWidth="17220" windowHeight="11295" xr2:uid="{CD02A47C-ECDF-4E8E-95B0-DE4F5A9BE3DA}"/>
+    <workbookView xWindow="11070" yWindow="2025" windowWidth="17220" windowHeight="11295" xr2:uid="{CD02A47C-ECDF-4E8E-95B0-DE4F5A9BE3DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Keutamaan ilmu</t>
   </si>
@@ -78,23 +78,77 @@
     <t>Menjawab dengan dalil perbuatan</t>
   </si>
   <si>
-    <t>Mimpi</t>
-  </si>
-  <si>
     <t>Jenis mimpi</t>
   </si>
   <si>
-    <t>Mimpi datangnya dari Allah</t>
-  </si>
-  <si>
-    <t>Mimpi Yusuf as.</t>
+    <t>Mimpii datangnya dari Allah</t>
+  </si>
+  <si>
+    <t>Mmpi Yusuf as.</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Qs.2:38</t>
+  </si>
+  <si>
+    <t>Qs.2:62</t>
+  </si>
+  <si>
+    <t>Qs.2:112</t>
+  </si>
+  <si>
+    <t>Qs.2:262</t>
+  </si>
+  <si>
+    <t>Qs.2:214</t>
+  </si>
+  <si>
+    <t>Qs.2:251</t>
+  </si>
+  <si>
+    <t>Qs.3:13</t>
+  </si>
+  <si>
+    <t>Qs.3:68</t>
+  </si>
+  <si>
+    <t>Qs.1:5</t>
+  </si>
+  <si>
+    <t>Qs.2:21</t>
+  </si>
+  <si>
+    <t>Qs.2:22</t>
+  </si>
+  <si>
+    <t>Qs.2:83</t>
+  </si>
+  <si>
+    <t>Qs.6:91</t>
+  </si>
+  <si>
+    <t>Qs.6:101</t>
+  </si>
+  <si>
+    <t>Qs.6:103</t>
+  </si>
+  <si>
+    <t>Qs.17:111</t>
+  </si>
+  <si>
+    <t>Qs.6:92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +185,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,20 +221,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{6EBBDC1B-C541-4BE0-A68B-FC4E62802862}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D6FD42E7-169A-449A-8C13-1A5AABAE6F0E}"/>
     <cellStyle name="Normal_index" xfId="2" xr:uid="{FFE8FA95-64A2-4EDE-90AC-09D6FB9DCA4B}"/>
@@ -477,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E453A-362A-4338-9914-9864CFE3FE9D}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,7 +578,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -505,7 +588,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -514,8 +597,20 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -524,8 +619,20 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -535,7 +642,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -544,8 +651,20 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -554,8 +673,20 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -565,7 +696,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -575,7 +706,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -585,7 +716,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
@@ -595,7 +726,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
@@ -605,7 +736,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -615,7 +746,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
@@ -625,7 +756,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
@@ -635,80 +766,123 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>